--- a/EV Growth Panama.xlsx
+++ b/EV Growth Panama.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderubaldogutierrez/Documents/Wix Studio Portfolio/Python Projects/EV Sales Panama 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderubaldogutierrez/Documents/GitHub Repository/EV_SalesCAMEPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91FF46-5F53-7349-A4A4-7B4FAB713C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD7CDD-30E7-9C4B-83ED-31196362E802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="1000" windowWidth="20740" windowHeight="11040" xr2:uid="{734ADA49-1AB2-44E6-B14A-A5D5359A39E3}"/>
+    <workbookView xWindow="9380" yWindow="2220" windowWidth="20740" windowHeight="11040" xr2:uid="{734ADA49-1AB2-44E6-B14A-A5D5359A39E3}"/>
   </bookViews>
   <sheets>
     <sheet name="EVPanama" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -610,10 +610,10 @@
         <v>50874</v>
       </c>
       <c r="C5" s="1">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <v>7.7249675669300629E-3</v>
@@ -650,13 +650,13 @@
         <v>24091</v>
       </c>
       <c r="C7" s="1">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4">
-        <v>1.0086754389606076E-2</v>
+        <v>1.0086754389606101E-2</v>
       </c>
       <c r="F7" s="4">
         <v>8.7169482379311771E-4</v>
@@ -710,10 +710,10 @@
         <v>48919</v>
       </c>
       <c r="C10" s="1">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D10" s="1">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E10" s="4">
         <v>2.289498967681269E-2</v>
@@ -730,10 +730,10 @@
         <v>35349</v>
       </c>
       <c r="C11" s="1">
-        <v>1238</v>
+        <v>1741</v>
       </c>
       <c r="D11" s="1">
-        <v>371</v>
+        <v>627</v>
       </c>
       <c r="E11" s="4">
         <v>3.5022207134572408E-2</v>

--- a/EV Growth Panama.xlsx
+++ b/EV Growth Panama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderubaldogutierrez/Documents/GitHub Repository/EV_SalesCAMEPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD7CDD-30E7-9C4B-83ED-31196362E802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACCF69-BE18-1347-BF6F-D81A8CDDD99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="2220" windowWidth="20740" windowHeight="11040" xr2:uid="{734ADA49-1AB2-44E6-B14A-A5D5359A39E3}"/>
+    <workbookView xWindow="5460" yWindow="4280" windowWidth="20740" windowHeight="11040" xr2:uid="{734ADA49-1AB2-44E6-B14A-A5D5359A39E3}"/>
   </bookViews>
   <sheets>
     <sheet name="EVPanama" sheetId="1" r:id="rId1"/>

--- a/EV Growth Panama.xlsx
+++ b/EV Growth Panama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderubaldogutierrez/Documents/GitHub Repository/EV_SalesCAMEPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ACCF69-BE18-1347-BF6F-D81A8CDDD99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9326570-8408-194A-89BC-ECA2A0F2878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="4280" windowWidth="20740" windowHeight="11040" xr2:uid="{734ADA49-1AB2-44E6-B14A-A5D5359A39E3}"/>
+    <workbookView xWindow="8140" yWindow="2740" windowWidth="20740" windowHeight="11040" xr2:uid="{734ADA49-1AB2-44E6-B14A-A5D5359A39E3}"/>
   </bookViews>
   <sheets>
     <sheet name="EVPanama" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>2015</t>
   </si>
@@ -68,16 +68,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>Market Share Hybrids Cars Total Market</t>
-  </si>
-  <si>
-    <t>Market Share BEV - Total Market</t>
-  </si>
-  <si>
     <t>Years</t>
-  </si>
-  <si>
-    <t>Unit Vehicles Sold</t>
   </si>
   <si>
     <t>Unit EVs Sold</t>
@@ -90,9 +81,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -151,22 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -505,241 +484,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855ED395-FA84-4FF8-978C-CADB08ACD73E}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="C11:D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="11" width="9" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>64735</v>
+      <c r="B2" s="1">
+        <v>277</v>
       </c>
       <c r="C2" s="1">
-        <v>277</v>
-      </c>
-      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
-        <v>4.2789835483123505E-3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3.0895188074457404E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>66700</v>
+      <c r="B3" s="1">
+        <v>340</v>
       </c>
       <c r="C3" s="1">
-        <v>340</v>
-      </c>
-      <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
-        <v>5.0974512743628183E-3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8.9955022488755624E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>56905</v>
+      <c r="B4" s="1">
+        <v>356</v>
       </c>
       <c r="C4" s="1">
-        <v>356</v>
-      </c>
-      <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
-        <v>6.2560407697038927E-3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.2301203760653722E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>50874</v>
+      <c r="B5" s="1">
+        <v>390</v>
       </c>
       <c r="C5" s="1">
-        <v>390</v>
-      </c>
-      <c r="D5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
-        <v>7.7249675669300629E-3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>9.8282030113614027E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>47866</v>
+      <c r="B6" s="1">
+        <v>537</v>
       </c>
       <c r="C6" s="1">
-        <v>537</v>
-      </c>
-      <c r="D6" s="1">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>1.1218819203610078E-2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.4624159110851126E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>24091</v>
+      <c r="B7" s="1">
+        <v>241</v>
       </c>
       <c r="C7" s="1">
-        <v>241</v>
-      </c>
-      <c r="D7" s="1">
         <v>23</v>
       </c>
-      <c r="E7" s="4">
-        <v>1.0086754389606101E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8.7169482379311771E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>38141</v>
+      <c r="B8" s="1">
+        <v>462</v>
       </c>
       <c r="C8" s="1">
-        <v>462</v>
-      </c>
-      <c r="D8" s="1">
         <v>82</v>
       </c>
-      <c r="E8" s="4">
-        <v>1.2112949319629794E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.1499174117091844E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>42169</v>
+      <c r="B9" s="1">
+        <v>595</v>
       </c>
       <c r="C9" s="1">
-        <v>595</v>
-      </c>
-      <c r="D9" s="1">
         <v>160</v>
       </c>
-      <c r="E9" s="4">
-        <v>1.4109891152268255E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3.7942564443074296E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>48919</v>
+      <c r="B10" s="1">
+        <v>1122</v>
       </c>
       <c r="C10" s="1">
-        <v>1122</v>
-      </c>
-      <c r="D10" s="1">
         <v>439</v>
       </c>
-      <c r="E10" s="4">
-        <v>2.289498967681269E-2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9.0149021852449964E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>35349</v>
+      <c r="B11" s="1">
+        <v>1741</v>
       </c>
       <c r="C11" s="1">
-        <v>1741</v>
-      </c>
-      <c r="D11" s="1">
         <v>627</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3.5022207134572408E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.0495346403009986E-2</v>
       </c>
     </row>
   </sheetData>

--- a/EV Growth Panama.xlsx
+++ b/EV Growth Panama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderubaldogutierrez/Documents/GitHub Repository/EV_SalesCAMEPA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9326570-8408-194A-89BC-ECA2A0F2878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8B59F-DF41-7B4E-9D1B-8B1DB9B35546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="2740" windowWidth="20740" windowHeight="11040" xr2:uid="{734ADA49-1AB2-44E6-B14A-A5D5359A39E3}"/>
   </bookViews>
